--- a/paper/Paper/thesis schedule.xlsx
+++ b/paper/Paper/thesis schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\paper\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA73825D-BC51-4F87-898E-F08B0FCCDBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378531D1-228E-488D-A610-4C5F53C76B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-87" yWindow="-87" windowWidth="25774" windowHeight="13974" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -145,21 +145,9 @@
     <t>Go over entire abstract and format</t>
   </si>
   <si>
-    <t>Write methods 3,4</t>
-  </si>
-  <si>
-    <t>Write methods 1,2</t>
-  </si>
-  <si>
     <t>Write Current research</t>
   </si>
   <si>
-    <t>Write Xiao + reaching vs mouse</t>
-  </si>
-  <si>
-    <t>Write prev paper with mo-cap and keyboard</t>
-  </si>
-  <si>
     <t>Write prev paper with mo-cap</t>
   </si>
   <si>
@@ -169,25 +157,39 @@
     <t>Send thesis to testers</t>
   </si>
   <si>
-    <t>Write Results 3</t>
-  </si>
-  <si>
-    <t>Write results 1</t>
-  </si>
-  <si>
-    <t>Write Results 2</t>
-  </si>
-  <si>
     <t>Re-write</t>
   </si>
   <si>
-    <t>write discussion 3</t>
-  </si>
-  <si>
-    <t>write discussion 2</t>
-  </si>
-  <si>
-    <t>write discussion 1</t>
+    <t>Write prev paper with mo-cap and keyboard,
+Write Xiao + reaching vs mouse</t>
+  </si>
+  <si>
+    <t>Write Exp 2 participants, 
+stimuli,
+setup,
+procedure, 
+results, 
+discussion</t>
+  </si>
+  <si>
+    <t>Write Exp 3 participants, 
+stimuli,
+setup,
+procedure, 
+results, 
+discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write Exp 4
+participants, stimuli,
+setup,
+procedure
+</t>
+  </si>
+  <si>
+    <t>Get Exp 1 results:
+Reach area
+Write Exp 1 procedure, results, discussion</t>
   </si>
 </sst>
 </file>
@@ -712,11 +714,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DS4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.0625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1875" style="3" bestFit="1" customWidth="1"/>
@@ -725,12 +727,13 @@
     <col min="5" max="5" width="9.6875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.6875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.1875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3125" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.0625" style="3" customWidth="1"/>
     <col min="11" max="12" width="9.6875" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.6875" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.9375" style="3" customWidth="1"/>
-    <col min="16" max="17" width="9.1875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.4375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.1875" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="9.6875" style="5" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="9.6875" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="9.6875" style="5" bestFit="1" customWidth="1"/>
@@ -1611,80 +1614,68 @@
       <c r="DM3" s="2"/>
       <c r="DR3" s="2"/>
     </row>
-    <row r="4" spans="1:123" ht="136.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:123" ht="136.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="Q4" s="10"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
-      <c r="X4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
-      <c r="AC4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
       <c r="AE4" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AF4" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AK4" s="10" t="s">
         <v>18</v>
@@ -1722,7 +1713,7 @@
       <c r="BN4" s="10"/>
       <c r="BO4" s="10"/>
       <c r="BP4" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="BQ4" s="12"/>
       <c r="BR4" s="12"/>

--- a/paper/Paper/thesis schedule.xlsx
+++ b/paper/Paper/thesis schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\paper\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378531D1-228E-488D-A610-4C5F53C76B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E1CEA3-1F5F-481B-8055-EF7814139C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-87" yWindow="-87" windowWidth="25774" windowHeight="13974" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,7 +250,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
@@ -258,12 +258,34 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="David"/>
+      <family val="2"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="9" tint="0.39997558519241921"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="David"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -347,7 +369,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
@@ -361,49 +383,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -427,8 +428,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -715,35 +767,37 @@
   <dimension ref="A1:DS4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.0625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.3125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.6875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.6875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.3125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.0625" style="3" customWidth="1"/>
-    <col min="11" max="12" width="9.6875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.6875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.9375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.4375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.1875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.6875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.6875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.6875" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="9.1875" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.6875" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.1875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.9375" style="3" customWidth="1"/>
-    <col min="31" max="33" width="9.1875" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="9.6875" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="40" width="9.1875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.1875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="14.3125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="9.6875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.6875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="16.3125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="12.0625" style="35" customWidth="1"/>
+    <col min="11" max="12" width="9.6875" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.6875" style="37" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.9375" style="35" customWidth="1"/>
+    <col min="16" max="16" width="10.4375" style="35" customWidth="1"/>
+    <col min="17" max="17" width="9.1875" style="35" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.6875" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.6875" style="37" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.6875" style="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="9.1875" style="35" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.6875" style="37" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.1875" style="35" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.9375" style="35" customWidth="1"/>
+    <col min="31" max="33" width="9.1875" style="35" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="9.6875" style="37" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.1875" style="35" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="9.1875" style="3" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="9.6875" style="4" bestFit="1" customWidth="1"/>
     <col min="43" max="47" width="9.1875" style="3" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="9.6875" style="4" bestFit="1" customWidth="1"/>
@@ -771,352 +825,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:123" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="20">
         <v>44739</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C1" s="20">
         <v>44740</v>
       </c>
-      <c r="D1" s="14">
+      <c r="D1" s="20">
         <v>44741</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="21">
         <v>44742</v>
       </c>
-      <c r="F1" s="16">
+      <c r="F1" s="22">
         <v>44743</v>
       </c>
-      <c r="G1" s="16">
+      <c r="G1" s="22">
         <v>44744</v>
       </c>
-      <c r="H1" s="14">
+      <c r="H1" s="20">
         <v>44745</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="20">
         <v>44746</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="20">
         <v>44747</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="23">
         <v>44748</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="23">
         <v>44749</v>
       </c>
-      <c r="M1" s="16">
+      <c r="M1" s="22">
         <v>44750</v>
       </c>
-      <c r="N1" s="16">
+      <c r="N1" s="22">
         <v>44751</v>
       </c>
-      <c r="O1" s="14">
+      <c r="O1" s="20">
         <v>44752</v>
       </c>
-      <c r="P1" s="14">
+      <c r="P1" s="20">
         <v>44753</v>
       </c>
-      <c r="Q1" s="14">
+      <c r="Q1" s="20">
         <v>44754</v>
       </c>
-      <c r="R1" s="15">
+      <c r="R1" s="21">
         <v>44755</v>
       </c>
-      <c r="S1" s="15">
+      <c r="S1" s="21">
         <v>44756</v>
       </c>
-      <c r="T1" s="16">
+      <c r="T1" s="22">
         <v>44757</v>
       </c>
-      <c r="U1" s="16">
+      <c r="U1" s="22">
         <v>44758</v>
       </c>
-      <c r="V1" s="15">
+      <c r="V1" s="21">
         <v>44759</v>
       </c>
-      <c r="W1" s="15">
+      <c r="W1" s="21">
         <v>44760</v>
       </c>
-      <c r="X1" s="14">
+      <c r="X1" s="20">
         <v>44761</v>
       </c>
-      <c r="Y1" s="14">
+      <c r="Y1" s="20">
         <v>44762</v>
       </c>
-      <c r="Z1" s="14">
+      <c r="Z1" s="20">
         <v>44763</v>
       </c>
-      <c r="AA1" s="16">
+      <c r="AA1" s="22">
         <v>44764</v>
       </c>
-      <c r="AB1" s="16">
+      <c r="AB1" s="22">
         <v>44765</v>
       </c>
-      <c r="AC1" s="14">
+      <c r="AC1" s="20">
         <v>44766</v>
       </c>
-      <c r="AD1" s="14">
+      <c r="AD1" s="20">
         <v>44767</v>
       </c>
-      <c r="AE1" s="14">
+      <c r="AE1" s="20">
         <v>44768</v>
       </c>
-      <c r="AF1" s="14">
+      <c r="AF1" s="20">
         <v>44769</v>
       </c>
-      <c r="AG1" s="14">
+      <c r="AG1" s="20">
         <v>44770</v>
       </c>
-      <c r="AH1" s="16">
+      <c r="AH1" s="22">
         <v>44771</v>
       </c>
-      <c r="AI1" s="16">
+      <c r="AI1" s="22">
         <v>44772</v>
       </c>
-      <c r="AJ1" s="14">
+      <c r="AJ1" s="20">
         <v>44773</v>
       </c>
-      <c r="AK1" s="14">
+      <c r="AK1" s="9">
         <v>44774</v>
       </c>
-      <c r="AL1" s="14">
+      <c r="AL1" s="9">
         <v>44775</v>
       </c>
-      <c r="AM1" s="14">
+      <c r="AM1" s="9">
         <v>44776</v>
       </c>
-      <c r="AN1" s="14">
+      <c r="AN1" s="9">
         <v>44777</v>
       </c>
-      <c r="AO1" s="16">
+      <c r="AO1" s="10">
         <v>44778</v>
       </c>
-      <c r="AP1" s="16">
+      <c r="AP1" s="10">
         <v>44779</v>
       </c>
-      <c r="AQ1" s="14">
+      <c r="AQ1" s="9">
         <v>44780</v>
       </c>
-      <c r="AR1" s="14">
+      <c r="AR1" s="9">
         <v>44781</v>
       </c>
-      <c r="AS1" s="14">
+      <c r="AS1" s="9">
         <v>44782</v>
       </c>
-      <c r="AT1" s="14">
+      <c r="AT1" s="9">
         <v>44783</v>
       </c>
-      <c r="AU1" s="14">
+      <c r="AU1" s="9">
         <v>44784</v>
       </c>
-      <c r="AV1" s="16">
+      <c r="AV1" s="10">
         <v>44785</v>
       </c>
-      <c r="AW1" s="16">
+      <c r="AW1" s="10">
         <v>44786</v>
       </c>
-      <c r="AX1" s="14">
+      <c r="AX1" s="9">
         <v>44787</v>
       </c>
-      <c r="AY1" s="14">
+      <c r="AY1" s="9">
         <v>44788</v>
       </c>
-      <c r="AZ1" s="14">
+      <c r="AZ1" s="9">
         <v>44789</v>
       </c>
-      <c r="BA1" s="14">
+      <c r="BA1" s="9">
         <v>44790</v>
       </c>
-      <c r="BB1" s="14">
+      <c r="BB1" s="9">
         <v>44791</v>
       </c>
-      <c r="BC1" s="16">
+      <c r="BC1" s="10">
         <v>44792</v>
       </c>
-      <c r="BD1" s="16">
+      <c r="BD1" s="10">
         <v>44793</v>
       </c>
-      <c r="BE1" s="14">
+      <c r="BE1" s="9">
         <v>44794</v>
       </c>
-      <c r="BF1" s="14">
+      <c r="BF1" s="9">
         <v>44795</v>
       </c>
-      <c r="BG1" s="14">
+      <c r="BG1" s="9">
         <v>44796</v>
       </c>
-      <c r="BH1" s="14">
+      <c r="BH1" s="9">
         <v>44797</v>
       </c>
-      <c r="BI1" s="14">
+      <c r="BI1" s="9">
         <v>44798</v>
       </c>
-      <c r="BJ1" s="16">
+      <c r="BJ1" s="10">
         <v>44799</v>
       </c>
-      <c r="BK1" s="16">
+      <c r="BK1" s="10">
         <v>44800</v>
       </c>
-      <c r="BL1" s="14">
+      <c r="BL1" s="9">
         <v>44801</v>
       </c>
-      <c r="BM1" s="14">
+      <c r="BM1" s="9">
         <v>44802</v>
       </c>
-      <c r="BN1" s="14">
+      <c r="BN1" s="9">
         <v>44803</v>
       </c>
-      <c r="BO1" s="14">
+      <c r="BO1" s="9">
         <v>44804</v>
       </c>
-      <c r="BP1" s="14">
+      <c r="BP1" s="9">
         <v>44805</v>
       </c>
-      <c r="BQ1" s="16">
+      <c r="BQ1" s="10">
         <v>44806</v>
       </c>
-      <c r="BR1" s="16">
+      <c r="BR1" s="10">
         <v>44807</v>
       </c>
-      <c r="BS1" s="14">
+      <c r="BS1" s="9">
         <v>44808</v>
       </c>
-      <c r="BT1" s="14">
+      <c r="BT1" s="9">
         <v>44809</v>
       </c>
-      <c r="BU1" s="14">
+      <c r="BU1" s="9">
         <v>44810</v>
       </c>
-      <c r="BV1" s="14">
+      <c r="BV1" s="9">
         <v>44811</v>
       </c>
-      <c r="BW1" s="14">
+      <c r="BW1" s="9">
         <v>44812</v>
       </c>
-      <c r="BX1" s="16">
+      <c r="BX1" s="10">
         <v>44813</v>
       </c>
-      <c r="BY1" s="16">
+      <c r="BY1" s="10">
         <v>44814</v>
       </c>
-      <c r="BZ1" s="14">
+      <c r="BZ1" s="9">
         <v>44815</v>
       </c>
-      <c r="CA1" s="14">
+      <c r="CA1" s="9">
         <v>44816</v>
       </c>
-      <c r="CB1" s="14">
+      <c r="CB1" s="9">
         <v>44817</v>
       </c>
-      <c r="CC1" s="14">
+      <c r="CC1" s="9">
         <v>44818</v>
       </c>
-      <c r="CD1" s="14">
+      <c r="CD1" s="9">
         <v>44819</v>
       </c>
-      <c r="CE1" s="16">
+      <c r="CE1" s="10">
         <v>44820</v>
       </c>
-      <c r="CF1" s="16">
+      <c r="CF1" s="10">
         <v>44821</v>
       </c>
-      <c r="CG1" s="14">
+      <c r="CG1" s="9">
         <v>44822</v>
       </c>
-      <c r="CH1" s="14">
+      <c r="CH1" s="9">
         <v>44823</v>
       </c>
-      <c r="CI1" s="14">
+      <c r="CI1" s="9">
         <v>44824</v>
       </c>
-      <c r="CJ1" s="14">
+      <c r="CJ1" s="9">
         <v>44825</v>
       </c>
-      <c r="CK1" s="14">
+      <c r="CK1" s="9">
         <v>44826</v>
       </c>
-      <c r="CL1" s="16">
+      <c r="CL1" s="10">
         <v>44827</v>
       </c>
-      <c r="CM1" s="16">
+      <c r="CM1" s="10">
         <v>44828</v>
       </c>
-      <c r="CN1" s="14">
+      <c r="CN1" s="9">
         <v>44829</v>
       </c>
-      <c r="CO1" s="14">
+      <c r="CO1" s="9">
         <v>44830</v>
       </c>
-      <c r="CP1" s="14">
+      <c r="CP1" s="9">
         <v>44831</v>
       </c>
-      <c r="CQ1" s="14">
+      <c r="CQ1" s="9">
         <v>44832</v>
       </c>
-      <c r="CR1" s="14">
+      <c r="CR1" s="9">
         <v>44833</v>
       </c>
-      <c r="CS1" s="16">
+      <c r="CS1" s="10">
         <v>44834</v>
       </c>
-      <c r="CT1" s="16">
+      <c r="CT1" s="10">
         <v>44835</v>
       </c>
-      <c r="CU1" s="14">
+      <c r="CU1" s="9">
         <v>44836</v>
       </c>
-      <c r="CV1" s="14">
+      <c r="CV1" s="9">
         <v>44837</v>
       </c>
-      <c r="CW1" s="14">
+      <c r="CW1" s="9">
         <v>44838</v>
       </c>
-      <c r="CX1" s="14">
+      <c r="CX1" s="9">
         <v>44839</v>
       </c>
-      <c r="CY1" s="14">
+      <c r="CY1" s="9">
         <v>44840</v>
       </c>
-      <c r="CZ1" s="16">
+      <c r="CZ1" s="10">
         <v>44841</v>
       </c>
-      <c r="DA1" s="16">
+      <c r="DA1" s="10">
         <v>44842</v>
       </c>
-      <c r="DB1" s="14">
+      <c r="DB1" s="9">
         <v>44843</v>
       </c>
-      <c r="DC1" s="14">
+      <c r="DC1" s="9">
         <v>44844</v>
       </c>
-      <c r="DD1" s="14">
+      <c r="DD1" s="9">
         <v>44845</v>
       </c>
-      <c r="DE1" s="14">
+      <c r="DE1" s="9">
         <v>44846</v>
       </c>
-      <c r="DF1" s="14">
+      <c r="DF1" s="9">
         <v>44847</v>
       </c>
-      <c r="DG1" s="16">
+      <c r="DG1" s="10">
         <v>44848</v>
       </c>
-      <c r="DH1" s="16">
+      <c r="DH1" s="10">
         <v>44849</v>
       </c>
-      <c r="DI1" s="14">
+      <c r="DI1" s="9">
         <v>44850</v>
       </c>
-      <c r="DJ1" s="14">
+      <c r="DJ1" s="9">
         <v>44851</v>
       </c>
-      <c r="DK1" s="14">
+      <c r="DK1" s="9">
         <v>44852</v>
       </c>
-      <c r="DL1" s="20"/>
+      <c r="DL1" s="13"/>
       <c r="DM1" s="2"/>
       <c r="DN1" s="2"/>
       <c r="DO1" s="2"/>
@@ -1126,352 +1180,352 @@
       <c r="DS1" s="2"/>
     </row>
     <row r="2" spans="1:123" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Y2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="Z2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="17" t="s">
+      <c r="AC2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AD2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="17" t="s">
+      <c r="AE2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AF2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="17" t="s">
+      <c r="AG2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="19" t="s">
+      <c r="AH2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AI2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="17" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AK2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="17" t="s">
+      <c r="AL2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="17" t="s">
+      <c r="AM2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="17" t="s">
+      <c r="AN2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AO2" s="19" t="s">
+      <c r="AO2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AP2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AQ2" s="17" t="s">
+      <c r="AQ2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="17" t="s">
+      <c r="AR2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="17" t="s">
+      <c r="AS2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AT2" s="17" t="s">
+      <c r="AT2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AU2" s="17" t="s">
+      <c r="AU2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="19" t="s">
+      <c r="AV2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AW2" s="19" t="s">
+      <c r="AW2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="17" t="s">
+      <c r="AX2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AY2" s="17" t="s">
+      <c r="AY2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AZ2" s="17" t="s">
+      <c r="AZ2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BA2" s="17" t="s">
+      <c r="BA2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BB2" s="17" t="s">
+      <c r="BB2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="BC2" s="19" t="s">
+      <c r="BC2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="BD2" s="19" t="s">
+      <c r="BD2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="BE2" s="17" t="s">
+      <c r="BE2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="BF2" s="17" t="s">
+      <c r="BF2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="BG2" s="17" t="s">
+      <c r="BG2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BH2" s="17" t="s">
+      <c r="BH2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BI2" s="17" t="s">
+      <c r="BI2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" s="19" t="s">
+      <c r="BJ2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="BK2" s="19" t="s">
+      <c r="BK2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="BL2" s="17" t="s">
+      <c r="BL2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="BM2" s="17" t="s">
+      <c r="BM2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="BN2" s="17" t="s">
+      <c r="BN2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BO2" s="17" t="s">
+      <c r="BO2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BP2" s="17" t="s">
+      <c r="BP2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="BQ2" s="19" t="s">
+      <c r="BQ2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="BR2" s="19" t="s">
+      <c r="BR2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="BS2" s="17" t="s">
+      <c r="BS2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="BT2" s="17" t="s">
+      <c r="BT2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="BU2" s="17" t="s">
+      <c r="BU2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BV2" s="17" t="s">
+      <c r="BV2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BW2" s="17" t="s">
+      <c r="BW2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="BX2" s="19" t="s">
+      <c r="BX2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="BY2" s="19" t="s">
+      <c r="BY2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="BZ2" s="17" t="s">
+      <c r="BZ2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="17" t="s">
+      <c r="CA2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CB2" s="17" t="s">
+      <c r="CB2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="CC2" s="17" t="s">
+      <c r="CC2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="CD2" s="17" t="s">
+      <c r="CD2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="CE2" s="19" t="s">
+      <c r="CE2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="CF2" s="19" t="s">
+      <c r="CF2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="CG2" s="17" t="s">
+      <c r="CG2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="CH2" s="17" t="s">
+      <c r="CH2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CI2" s="17" t="s">
+      <c r="CI2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="CJ2" s="17" t="s">
+      <c r="CJ2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="CK2" s="17" t="s">
+      <c r="CK2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="CL2" s="19" t="s">
+      <c r="CL2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="CM2" s="19" t="s">
+      <c r="CM2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="CN2" s="17" t="s">
+      <c r="CN2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="CO2" s="17" t="s">
+      <c r="CO2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CP2" s="17" t="s">
+      <c r="CP2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="CQ2" s="17" t="s">
+      <c r="CQ2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="CR2" s="17" t="s">
+      <c r="CR2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="CS2" s="19" t="s">
+      <c r="CS2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="CT2" s="19" t="s">
+      <c r="CT2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="CU2" s="17" t="s">
+      <c r="CU2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="CV2" s="17" t="s">
+      <c r="CV2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CW2" s="17" t="s">
+      <c r="CW2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="CX2" s="17" t="s">
+      <c r="CX2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="CY2" s="17" t="s">
+      <c r="CY2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="CZ2" s="19" t="s">
+      <c r="CZ2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="DA2" s="19" t="s">
+      <c r="DA2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="DB2" s="17" t="s">
+      <c r="DB2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="DC2" s="17" t="s">
+      <c r="DC2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="DD2" s="17" t="s">
+      <c r="DD2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="DE2" s="17" t="s">
+      <c r="DE2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="DF2" s="17" t="s">
+      <c r="DF2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="DG2" s="19" t="s">
+      <c r="DG2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="DH2" s="19" t="s">
+      <c r="DH2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="DI2" s="17" t="s">
+      <c r="DI2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="DJ2" s="17" t="s">
+      <c r="DJ2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="DK2" s="17" t="s">
+      <c r="DK2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="DL2" s="21"/>
+      <c r="DL2" s="14"/>
       <c r="DM2" s="2"/>
       <c r="DN2" s="2"/>
       <c r="DO2" s="2"/>
@@ -1481,73 +1535,73 @@
       <c r="DS2" s="2"/>
     </row>
     <row r="3" spans="1:123" ht="138.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="7"/>
-      <c r="BF3" s="7"/>
-      <c r="BG3" s="7"/>
-      <c r="BH3" s="7"/>
-      <c r="BI3" s="7"/>
-      <c r="BJ3" s="9"/>
-      <c r="BK3" s="9"/>
-      <c r="BL3" s="7"/>
-      <c r="BM3" s="7"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
       <c r="BN3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1557,212 +1611,212 @@
       <c r="BP3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="BQ3" s="9"/>
-      <c r="BR3" s="9"/>
-      <c r="BS3" s="7"/>
-      <c r="BT3" s="7"/>
-      <c r="BU3" s="7"/>
-      <c r="BV3" s="7"/>
-      <c r="BW3" s="7"/>
-      <c r="BX3" s="9"/>
-      <c r="BY3" s="9"/>
-      <c r="BZ3" s="7"/>
-      <c r="CA3" s="7"/>
-      <c r="CB3" s="7"/>
-      <c r="CC3" s="7"/>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="6"/>
+      <c r="BY3" s="6"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
       <c r="CD3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="CE3" s="9"/>
-      <c r="CF3" s="9"/>
-      <c r="CG3" s="7" t="s">
+      <c r="CE3" s="6"/>
+      <c r="CF3" s="6"/>
+      <c r="CG3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="CH3" s="7"/>
-      <c r="CI3" s="7"/>
-      <c r="CJ3" s="7"/>
-      <c r="CK3" s="7"/>
-      <c r="CL3" s="9"/>
-      <c r="CM3" s="9"/>
-      <c r="CN3" s="7"/>
-      <c r="CO3" s="7"/>
-      <c r="CP3" s="7"/>
-      <c r="CQ3" s="7"/>
-      <c r="CR3" s="7"/>
-      <c r="CS3" s="9"/>
-      <c r="CT3" s="9"/>
-      <c r="CU3" s="7"/>
-      <c r="CV3" s="7"/>
-      <c r="CW3" s="7"/>
-      <c r="CX3" s="7"/>
-      <c r="CY3" s="7"/>
-      <c r="CZ3" s="9"/>
-      <c r="DA3" s="9"/>
-      <c r="DB3" s="7"/>
-      <c r="DC3" s="7"/>
-      <c r="DD3" s="7"/>
-      <c r="DE3" s="7"/>
-      <c r="DF3" s="7"/>
-      <c r="DG3" s="9"/>
-      <c r="DH3" s="9"/>
-      <c r="DI3" s="7"/>
-      <c r="DJ3" s="7"/>
+      <c r="CH3" s="5"/>
+      <c r="CI3" s="5"/>
+      <c r="CJ3" s="5"/>
+      <c r="CK3" s="5"/>
+      <c r="CL3" s="6"/>
+      <c r="CM3" s="6"/>
+      <c r="CN3" s="5"/>
+      <c r="CO3" s="5"/>
+      <c r="CP3" s="5"/>
+      <c r="CQ3" s="5"/>
+      <c r="CR3" s="5"/>
+      <c r="CS3" s="6"/>
+      <c r="CT3" s="6"/>
+      <c r="CU3" s="5"/>
+      <c r="CV3" s="5"/>
+      <c r="CW3" s="5"/>
+      <c r="CX3" s="5"/>
+      <c r="CY3" s="5"/>
+      <c r="CZ3" s="6"/>
+      <c r="DA3" s="6"/>
+      <c r="DB3" s="5"/>
+      <c r="DC3" s="5"/>
+      <c r="DD3" s="5"/>
+      <c r="DE3" s="5"/>
+      <c r="DF3" s="5"/>
+      <c r="DG3" s="6"/>
+      <c r="DH3" s="6"/>
+      <c r="DI3" s="5"/>
+      <c r="DJ3" s="5"/>
       <c r="DK3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="DL3" s="7"/>
+      <c r="DL3" s="5"/>
       <c r="DM3" s="2"/>
       <c r="DR3" s="2"/>
     </row>
     <row r="4" spans="1:123" ht="136.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="10" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="10" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10" t="s">
+      <c r="Q4" s="32"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AF4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AG4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="10" t="s">
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AK4" s="10" t="s">
+      <c r="AK4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AL4" s="10" t="s">
+      <c r="AL4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="10"/>
-      <c r="BA4" s="10"/>
-      <c r="BB4" s="10"/>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="12"/>
-      <c r="BE4" s="10"/>
-      <c r="BF4" s="10"/>
-      <c r="BG4" s="10"/>
-      <c r="BH4" s="10"/>
-      <c r="BI4" s="10"/>
-      <c r="BJ4" s="12"/>
-      <c r="BK4" s="12"/>
-      <c r="BL4" s="10"/>
-      <c r="BM4" s="10"/>
-      <c r="BN4" s="10"/>
-      <c r="BO4" s="10"/>
-      <c r="BP4" s="10" t="s">
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="7"/>
+      <c r="BM4" s="7"/>
+      <c r="BN4" s="7"/>
+      <c r="BO4" s="7"/>
+      <c r="BP4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="BQ4" s="12"/>
-      <c r="BR4" s="12"/>
-      <c r="BS4" s="10"/>
-      <c r="BT4" s="10"/>
-      <c r="BU4" s="10"/>
-      <c r="BV4" s="10"/>
-      <c r="BW4" s="10"/>
-      <c r="BX4" s="12"/>
-      <c r="BY4" s="12"/>
-      <c r="BZ4" s="10"/>
-      <c r="CA4" s="10"/>
-      <c r="CB4" s="10"/>
-      <c r="CC4" s="10"/>
-      <c r="CD4" s="10"/>
-      <c r="CE4" s="12"/>
-      <c r="CF4" s="12"/>
-      <c r="CG4" s="10"/>
-      <c r="CH4" s="10"/>
-      <c r="CI4" s="10"/>
-      <c r="CJ4" s="10"/>
-      <c r="CK4" s="10"/>
-      <c r="CL4" s="12"/>
-      <c r="CM4" s="12"/>
-      <c r="CN4" s="10"/>
-      <c r="CO4" s="10"/>
-      <c r="CP4" s="10"/>
-      <c r="CQ4" s="10"/>
-      <c r="CR4" s="10"/>
-      <c r="CS4" s="12"/>
-      <c r="CT4" s="12"/>
-      <c r="CU4" s="10"/>
-      <c r="CV4" s="10"/>
-      <c r="CW4" s="10"/>
-      <c r="CX4" s="10"/>
-      <c r="CY4" s="10"/>
-      <c r="CZ4" s="12"/>
-      <c r="DA4" s="12"/>
-      <c r="DB4" s="10"/>
-      <c r="DC4" s="10"/>
-      <c r="DD4" s="10"/>
-      <c r="DE4" s="10"/>
-      <c r="DF4" s="10"/>
-      <c r="DG4" s="12"/>
-      <c r="DH4" s="12"/>
-      <c r="DI4" s="10"/>
-      <c r="DJ4" s="10"/>
-      <c r="DK4" s="10"/>
-      <c r="DL4" s="22"/>
+      <c r="BQ4" s="8"/>
+      <c r="BR4" s="8"/>
+      <c r="BS4" s="7"/>
+      <c r="BT4" s="7"/>
+      <c r="BU4" s="7"/>
+      <c r="BV4" s="7"/>
+      <c r="BW4" s="7"/>
+      <c r="BX4" s="8"/>
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="7"/>
+      <c r="CA4" s="7"/>
+      <c r="CB4" s="7"/>
+      <c r="CC4" s="7"/>
+      <c r="CD4" s="7"/>
+      <c r="CE4" s="8"/>
+      <c r="CF4" s="8"/>
+      <c r="CG4" s="7"/>
+      <c r="CH4" s="7"/>
+      <c r="CI4" s="7"/>
+      <c r="CJ4" s="7"/>
+      <c r="CK4" s="7"/>
+      <c r="CL4" s="8"/>
+      <c r="CM4" s="8"/>
+      <c r="CN4" s="7"/>
+      <c r="CO4" s="7"/>
+      <c r="CP4" s="7"/>
+      <c r="CQ4" s="7"/>
+      <c r="CR4" s="7"/>
+      <c r="CS4" s="8"/>
+      <c r="CT4" s="8"/>
+      <c r="CU4" s="7"/>
+      <c r="CV4" s="7"/>
+      <c r="CW4" s="7"/>
+      <c r="CX4" s="7"/>
+      <c r="CY4" s="7"/>
+      <c r="CZ4" s="8"/>
+      <c r="DA4" s="8"/>
+      <c r="DB4" s="7"/>
+      <c r="DC4" s="7"/>
+      <c r="DD4" s="7"/>
+      <c r="DE4" s="7"/>
+      <c r="DF4" s="7"/>
+      <c r="DG4" s="8"/>
+      <c r="DH4" s="8"/>
+      <c r="DI4" s="7"/>
+      <c r="DJ4" s="7"/>
+      <c r="DK4" s="7"/>
+      <c r="DL4" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/paper/Paper/thesis schedule.xlsx
+++ b/paper/Paper/thesis schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\paper\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E1CEA3-1F5F-481B-8055-EF7814139C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79930D59-EFDA-483D-98A0-EE573B6F01F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +287,37 @@
       <name val="David"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="David"/>
+      <family val="2"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="David"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -306,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -363,13 +394,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
@@ -480,6 +533,42 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,8 +856,8 @@
   <dimension ref="A1:DS4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL3" sqref="AL3"/>
+      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CI4" sqref="CI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
@@ -797,9 +886,9 @@
     <col min="31" max="33" width="9.1875" style="35" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="9.6875" style="37" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9.1875" style="35" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="9.1875" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="9.6875" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="47" width="9.1875" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="9.1875" style="46" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="9.6875" style="47" bestFit="1" customWidth="1"/>
+    <col min="43" max="47" width="9.1875" style="46" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="9.6875" style="4" bestFit="1" customWidth="1"/>
     <col min="50" max="54" width="9.1875" style="3" bestFit="1" customWidth="1"/>
     <col min="55" max="56" width="9.6875" style="4" bestFit="1" customWidth="1"/>
@@ -933,37 +1022,37 @@
       <c r="AJ1" s="20">
         <v>44773</v>
       </c>
-      <c r="AK1" s="9">
+      <c r="AK1" s="38">
         <v>44774</v>
       </c>
-      <c r="AL1" s="9">
+      <c r="AL1" s="38">
         <v>44775</v>
       </c>
-      <c r="AM1" s="9">
+      <c r="AM1" s="38">
         <v>44776</v>
       </c>
-      <c r="AN1" s="9">
+      <c r="AN1" s="38">
         <v>44777</v>
       </c>
-      <c r="AO1" s="10">
+      <c r="AO1" s="39">
         <v>44778</v>
       </c>
-      <c r="AP1" s="10">
+      <c r="AP1" s="39">
         <v>44779</v>
       </c>
-      <c r="AQ1" s="9">
+      <c r="AQ1" s="38">
         <v>44780</v>
       </c>
-      <c r="AR1" s="9">
+      <c r="AR1" s="38">
         <v>44781</v>
       </c>
-      <c r="AS1" s="9">
+      <c r="AS1" s="38">
         <v>44782</v>
       </c>
-      <c r="AT1" s="9">
+      <c r="AT1" s="38">
         <v>44783</v>
       </c>
-      <c r="AU1" s="9">
+      <c r="AU1" s="38">
         <v>44784</v>
       </c>
       <c r="AV1" s="10">
@@ -1288,37 +1377,37 @@
       <c r="AJ2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AK2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AL2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="11" t="s">
+      <c r="AM2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="11" t="s">
+      <c r="AN2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="AO2" s="12" t="s">
+      <c r="AO2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AP2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AQ2" s="11" t="s">
+      <c r="AQ2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="11" t="s">
+      <c r="AR2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="11" t="s">
+      <c r="AS2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AT2" s="11" t="s">
+      <c r="AT2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AU2" s="11" t="s">
+      <c r="AU2" s="40" t="s">
         <v>11</v>
       </c>
       <c r="AV2" s="12" t="s">
@@ -1573,17 +1662,17 @@
       <c r="AH3" s="31"/>
       <c r="AI3" s="31"/>
       <c r="AJ3" s="29"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
       <c r="AV3" s="6"/>
       <c r="AW3" s="6"/>
       <c r="AX3" s="5"/>
@@ -1661,7 +1750,7 @@
       <c r="DH3" s="6"/>
       <c r="DI3" s="5"/>
       <c r="DJ3" s="5"/>
-      <c r="DK3" s="2" t="s">
+      <c r="DK3" s="48" t="s">
         <v>3</v>
       </c>
       <c r="DL3" s="5"/>
@@ -1731,21 +1820,21 @@
       <c r="AJ4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AK4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AL4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
       <c r="AV4" s="8"/>
       <c r="AW4" s="8"/>
       <c r="AX4" s="7"/>
@@ -1766,9 +1855,7 @@
       <c r="BM4" s="7"/>
       <c r="BN4" s="7"/>
       <c r="BO4" s="7"/>
-      <c r="BP4" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="BP4" s="7"/>
       <c r="BQ4" s="8"/>
       <c r="BR4" s="8"/>
       <c r="BS4" s="7"/>
@@ -1785,7 +1872,9 @@
       <c r="CD4" s="7"/>
       <c r="CE4" s="8"/>
       <c r="CF4" s="8"/>
-      <c r="CG4" s="7"/>
+      <c r="CG4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="CH4" s="7"/>
       <c r="CI4" s="7"/>
       <c r="CJ4" s="7"/>
@@ -1815,7 +1904,7 @@
       <c r="DH4" s="8"/>
       <c r="DI4" s="7"/>
       <c r="DJ4" s="7"/>
-      <c r="DK4" s="7"/>
+      <c r="DK4" s="49"/>
       <c r="DL4" s="15"/>
     </row>
   </sheetData>
